--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H2">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I2">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J2">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.467363</v>
+        <v>13.79081533333333</v>
       </c>
       <c r="N2">
-        <v>19.402089</v>
+        <v>41.372446</v>
       </c>
       <c r="O2">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="P2">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="Q2">
-        <v>2077.246154261486</v>
+        <v>0.1121974766135556</v>
       </c>
       <c r="R2">
-        <v>18695.21538835337</v>
+        <v>1.009777289522</v>
       </c>
       <c r="S2">
-        <v>0.1210570538455873</v>
+        <v>3.258358998101795E-05</v>
       </c>
       <c r="T2">
-        <v>0.1210570538455873</v>
+        <v>3.258358998101794E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H3">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I3">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J3">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>78.91898400000001</v>
       </c>
       <c r="O3">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944754</v>
       </c>
       <c r="P3">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944753</v>
       </c>
       <c r="Q3">
-        <v>8449.304402851865</v>
+        <v>0.2140195158320001</v>
       </c>
       <c r="R3">
-        <v>76043.7396256668</v>
+        <v>1.926175642488</v>
       </c>
       <c r="S3">
-        <v>0.4924057247406218</v>
+        <v>6.215401952242602E-05</v>
       </c>
       <c r="T3">
-        <v>0.4924057247406218</v>
+        <v>6.2154019522426E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H4">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I4">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J4">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.13950433333333</v>
+        <v>9.588979333333333</v>
       </c>
       <c r="N4">
-        <v>30.418513</v>
+        <v>28.766938</v>
       </c>
       <c r="O4">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="P4">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="Q4">
-        <v>3256.697727116034</v>
+        <v>0.07801273952955556</v>
       </c>
       <c r="R4">
-        <v>29310.27954404431</v>
+        <v>0.7021146557660001</v>
       </c>
       <c r="S4">
-        <v>0.1897927365524247</v>
+        <v>2.265590274264578E-05</v>
       </c>
       <c r="T4">
-        <v>0.1897927365524247</v>
+        <v>2.265590274264578E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>321.1890463333334</v>
+        <v>0.008135666666666668</v>
       </c>
       <c r="H5">
-        <v>963.5671390000001</v>
+        <v>0.024407</v>
       </c>
       <c r="I5">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="J5">
-        <v>0.8087719216371989</v>
+        <v>0.0001175588769867851</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.294709</v>
+        <v>0.06998966666666667</v>
       </c>
       <c r="N5">
-        <v>0.884127</v>
+        <v>0.209969</v>
       </c>
       <c r="O5">
-        <v>0.006820719600895863</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="P5">
-        <v>0.006820719600895864</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="Q5">
-        <v>94.65730265585034</v>
+        <v>0.0005694125981111112</v>
       </c>
       <c r="R5">
-        <v>851.9157239026531</v>
+        <v>0.005124713383000001</v>
       </c>
       <c r="S5">
-        <v>0.005516406498565055</v>
+        <v>1.65364740695398E-07</v>
       </c>
       <c r="T5">
-        <v>0.005516406498565056</v>
+        <v>1.65364740695398E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.040577</v>
       </c>
       <c r="I6">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J6">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.467363</v>
+        <v>13.79081533333333</v>
       </c>
       <c r="N6">
-        <v>19.402089</v>
+        <v>41.372446</v>
       </c>
       <c r="O6">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="P6">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="Q6">
-        <v>0.08747539615033333</v>
+        <v>0.1865299712602222</v>
       </c>
       <c r="R6">
-        <v>0.7872785653529999</v>
+        <v>1.678769741342</v>
       </c>
       <c r="S6">
-        <v>5.097861762897247E-06</v>
+        <v>5.417070228458086E-05</v>
       </c>
       <c r="T6">
-        <v>5.097861762897246E-06</v>
+        <v>5.417070228458086E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.040577</v>
       </c>
       <c r="I7">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J7">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>78.91898400000001</v>
       </c>
       <c r="O7">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944754</v>
       </c>
       <c r="P7">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944753</v>
       </c>
       <c r="Q7">
-        <v>0.355810623752</v>
+        <v>0.3558106237520001</v>
       </c>
       <c r="R7">
         <v>3.202295613768</v>
       </c>
       <c r="S7">
-        <v>2.073581205097553E-05</v>
+        <v>0.0001033319805859582</v>
       </c>
       <c r="T7">
-        <v>2.073581205097552E-05</v>
+        <v>0.0001033319805859581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.040577</v>
       </c>
       <c r="I8">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J8">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.13950433333333</v>
+        <v>9.588979333333333</v>
       </c>
       <c r="N8">
-        <v>30.418513</v>
+        <v>28.766938</v>
       </c>
       <c r="O8">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="P8">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="Q8">
-        <v>0.1371435557778889</v>
+        <v>0.1296973381362222</v>
       </c>
       <c r="R8">
-        <v>1.234292002001</v>
+        <v>1.167276043226</v>
       </c>
       <c r="S8">
-        <v>7.992406091266399E-06</v>
+        <v>3.766577480183299E-05</v>
       </c>
       <c r="T8">
-        <v>7.992406091266397E-06</v>
+        <v>3.766577480183298E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.040577</v>
       </c>
       <c r="I9">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="J9">
-        <v>3.405838258279646E-05</v>
+        <v>0.0001954433790098242</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.294709</v>
+        <v>0.06998966666666667</v>
       </c>
       <c r="N9">
-        <v>0.884127</v>
+        <v>0.209969</v>
       </c>
       <c r="O9">
-        <v>0.006820719600895863</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="P9">
-        <v>0.006820719600895864</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="Q9">
-        <v>0.003986135697666666</v>
+        <v>0.0009466569014444445</v>
       </c>
       <c r="R9">
-        <v>0.035875221279</v>
+        <v>0.008519912113000001</v>
       </c>
       <c r="S9">
-        <v>2.323026776572901E-07</v>
+        <v>2.749213374522541E-07</v>
       </c>
       <c r="T9">
-        <v>2.323026776572901E-07</v>
+        <v>2.749213374522541E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H10">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I10">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J10">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.467363</v>
+        <v>13.79081533333333</v>
       </c>
       <c r="N10">
-        <v>19.402089</v>
+        <v>41.372446</v>
       </c>
       <c r="O10">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="P10">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="Q10">
-        <v>491.0618582278872</v>
+        <v>954.0951855372576</v>
       </c>
       <c r="R10">
-        <v>4419.556724050985</v>
+        <v>8586.856669835319</v>
       </c>
       <c r="S10">
-        <v>0.02861793807683918</v>
+        <v>0.2770815108033655</v>
       </c>
       <c r="T10">
-        <v>0.02861793807683918</v>
+        <v>0.2770815108033655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H11">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I11">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J11">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>78.91898400000001</v>
       </c>
       <c r="O11">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944754</v>
       </c>
       <c r="P11">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944753</v>
       </c>
       <c r="Q11">
-        <v>1997.419088867024</v>
+        <v>1819.960625047208</v>
       </c>
       <c r="R11">
-        <v>17976.77179980322</v>
+        <v>16379.64562542488</v>
       </c>
       <c r="S11">
-        <v>0.1164049189341963</v>
+        <v>0.528539968794367</v>
       </c>
       <c r="T11">
-        <v>0.1164049189341963</v>
+        <v>0.5285399687943669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H12">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I12">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J12">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.13950433333333</v>
+        <v>9.588979333333333</v>
       </c>
       <c r="N12">
-        <v>30.418513</v>
+        <v>28.766938</v>
       </c>
       <c r="O12">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="P12">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="Q12">
-        <v>769.8847025343067</v>
+        <v>663.3979786558616</v>
       </c>
       <c r="R12">
-        <v>6928.962322808761</v>
+        <v>5970.581807902754</v>
       </c>
       <c r="S12">
-        <v>0.04486708216952965</v>
+        <v>0.192659303784619</v>
       </c>
       <c r="T12">
-        <v>0.04486708216952965</v>
+        <v>0.192659303784619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.92922466666666</v>
+        <v>69.18337766666667</v>
       </c>
       <c r="H13">
-        <v>227.787674</v>
+        <v>207.550133</v>
       </c>
       <c r="I13">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440035</v>
       </c>
       <c r="J13">
-        <v>0.1911940199802183</v>
+        <v>0.9996869977440034</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.294709</v>
+        <v>0.06998966666666667</v>
       </c>
       <c r="N13">
-        <v>0.884127</v>
+        <v>0.209969</v>
       </c>
       <c r="O13">
-        <v>0.006820719600895863</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="P13">
-        <v>0.006820719600895864</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="Q13">
-        <v>22.37702587228866</v>
+        <v>4.842121541764111</v>
       </c>
       <c r="R13">
-        <v>201.393232850598</v>
+        <v>43.57909387587701</v>
       </c>
       <c r="S13">
-        <v>0.00130408079965315</v>
+        <v>0.001406214361652</v>
       </c>
       <c r="T13">
-        <v>0.00130408079965315</v>
+        <v>0.001406214361652</v>
       </c>
     </row>
   </sheetData>
